--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3635.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3635.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.419973593264037</v>
+        <v>1.225934386253357</v>
       </c>
       <c r="B1">
-        <v>1.945774176623861</v>
+        <v>1.68542218208313</v>
       </c>
       <c r="C1">
-        <v>2.123239224590315</v>
+        <v>2.969988107681274</v>
       </c>
       <c r="D1">
-        <v>2.400299994876734</v>
+        <v>1.501512765884399</v>
       </c>
       <c r="E1">
-        <v>2.954753819005858</v>
+        <v>0.8209075331687927</v>
       </c>
     </row>
   </sheetData>
